--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1824816846622508</v>
+        <v>0.1517529738683712</v>
       </c>
       <c r="D2">
-        <v>0.3810473393541562</v>
+        <v>0.4424140926678302</v>
       </c>
       <c r="E2">
-        <v>0.4791923761334531</v>
+        <v>0.5559930019804442</v>
       </c>
       <c r="F2">
-        <v>0.5126471465324727</v>
+        <v>0.6335794077072903</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1824816846622508</v>
+        <v>0.1517529738683712</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7927344060399322</v>
+        <v>0.8307987040824378</v>
       </c>
       <c r="E3">
-        <v>0.4091558788860339</v>
+        <v>0.3568550114688089</v>
       </c>
       <c r="F3">
-        <v>0.4508442112972468</v>
+        <v>0.5077837894376049</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3810473393541562</v>
+        <v>0.4424140926678302</v>
       </c>
       <c r="C4">
-        <v>0.7927344060399322</v>
+        <v>0.8307987040824378</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5573239474758547</v>
+        <v>0.5197792387516027</v>
       </c>
       <c r="F4">
-        <v>0.6902632130731654</v>
+        <v>0.7504395474266516</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4791923761334531</v>
+        <v>0.5559930019804442</v>
       </c>
       <c r="C5">
-        <v>0.4091558788860339</v>
+        <v>0.3568550114688089</v>
       </c>
       <c r="D5">
-        <v>0.5573239474758547</v>
+        <v>0.5197792387516027</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9367177088441723</v>
+        <v>0.9486417677235603</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5126471465324727</v>
+        <v>0.6335794077072903</v>
       </c>
       <c r="C6">
-        <v>0.4508442112972468</v>
+        <v>0.5077837894376049</v>
       </c>
       <c r="D6">
-        <v>0.6902632130731654</v>
+        <v>0.7504395474266516</v>
       </c>
       <c r="E6">
-        <v>0.9367177088441723</v>
+        <v>0.9486417677235603</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.333796309655672</v>
+        <v>-1.484922795357269</v>
       </c>
       <c r="D2">
-        <v>-0.8762372045551063</v>
+        <v>-0.7822365484840662</v>
       </c>
       <c r="E2">
-        <v>-0.707786648974816</v>
+        <v>-0.5979292057262133</v>
       </c>
       <c r="F2">
-        <v>-0.6548839365031566</v>
+        <v>-0.4834123394741173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.333796309655672</v>
+        <v>1.484922795357269</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2628103144982232</v>
+        <v>0.2162327835290688</v>
       </c>
       <c r="E3">
-        <v>0.8256211624530331</v>
+        <v>0.9411365930245758</v>
       </c>
       <c r="F3">
-        <v>0.7542138660127455</v>
+        <v>0.6732755844462968</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8762372045551063</v>
+        <v>0.7822365484840662</v>
       </c>
       <c r="C4">
-        <v>-0.2628103144982232</v>
+        <v>-0.2162327835290688</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.586958059588287</v>
+        <v>0.6541755710080005</v>
       </c>
       <c r="F4">
-        <v>0.3985781274787406</v>
+        <v>0.3220707208758357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.707786648974816</v>
+        <v>0.5979292057262133</v>
       </c>
       <c r="C5">
-        <v>-0.8256211624530331</v>
+        <v>-0.9411365930245758</v>
       </c>
       <c r="D5">
-        <v>-0.586958059588287</v>
+        <v>-0.6541755710080005</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.07940980797180602</v>
+        <v>-0.06515152266377509</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6548839365031566</v>
+        <v>0.4834123394741173</v>
       </c>
       <c r="C6">
-        <v>-0.7542138660127455</v>
+        <v>-0.6732755844462968</v>
       </c>
       <c r="D6">
-        <v>-0.3985781274787406</v>
+        <v>-0.3220707208758357</v>
       </c>
       <c r="E6">
-        <v>0.07940980797180602</v>
+        <v>0.06515152266377509</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1517529738683712</v>
+        <v>0.06134059046815921</v>
       </c>
       <c r="D2">
-        <v>0.4424140926678302</v>
+        <v>0.1525830422105225</v>
       </c>
       <c r="E2">
-        <v>0.5559930019804442</v>
+        <v>0.2515960483366952</v>
       </c>
       <c r="F2">
-        <v>0.6335794077072903</v>
+        <v>0.1026017477592327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1517529738683712</v>
+        <v>0.06134059046815921</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8307987040824378</v>
+        <v>0.05091774490754575</v>
       </c>
       <c r="E3">
-        <v>0.3568550114688089</v>
+        <v>0.2084546466690032</v>
       </c>
       <c r="F3">
-        <v>0.5077837894376049</v>
+        <v>0.8319552989199996</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4424140926678302</v>
+        <v>0.1525830422105225</v>
       </c>
       <c r="C4">
-        <v>0.8307987040824378</v>
+        <v>0.05091774490754575</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5197792387516027</v>
+        <v>0.9752967271571851</v>
       </c>
       <c r="F4">
-        <v>0.7504395474266516</v>
+        <v>0.349909800183992</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5559930019804442</v>
+        <v>0.2515960483366952</v>
       </c>
       <c r="C5">
-        <v>0.3568550114688089</v>
+        <v>0.2084546466690032</v>
       </c>
       <c r="D5">
-        <v>0.5197792387516027</v>
+        <v>0.9752967271571851</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9486417677235603</v>
+        <v>0.3894310554416656</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6335794077072903</v>
+        <v>0.1026017477592327</v>
       </c>
       <c r="C6">
-        <v>0.5077837894376049</v>
+        <v>0.8319552989199996</v>
       </c>
       <c r="D6">
-        <v>0.7504395474266516</v>
+        <v>0.349909800183992</v>
       </c>
       <c r="E6">
-        <v>0.9486417677235603</v>
+        <v>0.3894310554416656</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.484922795357269</v>
+        <v>1.935031288397965</v>
       </c>
       <c r="D2">
-        <v>-0.7822365484840662</v>
+        <v>1.463250189797089</v>
       </c>
       <c r="E2">
-        <v>-0.5979292057262133</v>
+        <v>1.166332989988718</v>
       </c>
       <c r="F2">
-        <v>-0.4834123394741173</v>
+        <v>1.677572379665994</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.484922795357269</v>
+        <v>-1.935031288397965</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2162327835290688</v>
+        <v>-2.023697709285369</v>
       </c>
       <c r="E3">
-        <v>0.9411365930245758</v>
+        <v>-1.282176242962851</v>
       </c>
       <c r="F3">
-        <v>0.6732755844462968</v>
+        <v>0.213831936482589</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7822365484840662</v>
+        <v>-1.463250189797089</v>
       </c>
       <c r="C4">
-        <v>-0.2162327835290688</v>
+        <v>2.023697709285369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6541755710080005</v>
+        <v>0.03119462845533057</v>
       </c>
       <c r="F4">
-        <v>0.3220707208758357</v>
+        <v>0.9478194739883854</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5979292057262133</v>
+        <v>-1.166332989988718</v>
       </c>
       <c r="C5">
-        <v>-0.9411365930245758</v>
+        <v>1.282176242962851</v>
       </c>
       <c r="D5">
-        <v>-0.6541755710080005</v>
+        <v>-0.03119462845533057</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.06515152266377509</v>
+        <v>0.8718023730584906</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4834123394741173</v>
+        <v>-1.677572379665994</v>
       </c>
       <c r="C6">
-        <v>-0.6732755844462968</v>
+        <v>-0.213831936482589</v>
       </c>
       <c r="D6">
-        <v>-0.3220707208758357</v>
+        <v>-0.9478194739883854</v>
       </c>
       <c r="E6">
-        <v>0.06515152266377509</v>
+        <v>-0.8718023730584906</v>
       </c>
       <c r="F6">
         <v>0</v>
